--- a/FootBallStat/FootBallStat/Команди.xlsx
+++ b/FootBallStat/FootBallStat/Команди.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Верес" sheetId="1" r:id="rId1"/>
-    <sheet name="Шахтар" sheetId="3" r:id="rId2"/>
-    <sheet name="Juventus" sheetId="4" r:id="rId3"/>
+    <sheet name="ПСЖ" sheetId="5" r:id="rId2"/>
+    <sheet name="Шахтар" sheetId="3" r:id="rId3"/>
+    <sheet name="Juventus" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Ім'я</t>
   </si>
@@ -73,10 +74,40 @@
     <t>Форвард</t>
   </si>
   <si>
-    <t>Душан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Душан </t>
+    <t>Даніло</t>
+  </si>
+  <si>
+    <t>Бонуччі</t>
+  </si>
+  <si>
+    <t>Щенсни</t>
+  </si>
+  <si>
+    <t>Воротар</t>
+  </si>
+  <si>
+    <t>Рабьйо</t>
+  </si>
+  <si>
+    <t>Артур</t>
+  </si>
+  <si>
+    <t>Де Шильйо</t>
+  </si>
+  <si>
+    <t>Студент</t>
+  </si>
+  <si>
+    <t>Юрій Підлетейчук</t>
+  </si>
+  <si>
+    <t>Олексій Астраханцев</t>
+  </si>
+  <si>
+    <t>Юрій</t>
+  </si>
+  <si>
+    <t>Богдан</t>
   </si>
 </sst>
 </file>
@@ -102,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +144,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -165,12 +202,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -189,8 +230,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Ім'я"/>
     <tableColumn id="2" name="Дата народження"/>
@@ -477,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,13 +551,27 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>32091</v>
+        <v>45971</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
+        <v>36870</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -529,10 +584,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6">
+        <v>37848</v>
+      </c>
+      <c r="C2" s="7">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37304</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6">
+        <v>39309</v>
+      </c>
+      <c r="C4" s="7">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6">
+        <v>20316</v>
+      </c>
+      <c r="C5" s="7">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,12 +742,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,13 +819,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>36906</v>
+        <v>32154</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -687,13 +833,83 @@
         <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>36906</v>
+        <v>30713</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30805</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>33329</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <v>33329</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1">
+        <v>31142</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>33329</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/FootBallStat/FootBallStat/Команди.xlsx
+++ b/FootBallStat/FootBallStat/Команди.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Верес" sheetId="1" r:id="rId1"/>
     <sheet name="ПСЖ" sheetId="5" r:id="rId2"/>
     <sheet name="Шахтар" sheetId="3" r:id="rId3"/>
-    <sheet name="Juventus" sheetId="4" r:id="rId4"/>
+    <sheet name="Juventus" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Ім'я</t>
   </si>
@@ -56,45 +56,12 @@
     <t>Лівий захисник</t>
   </si>
   <si>
-    <t>Маттейс Де Лігт</t>
-  </si>
-  <si>
-    <t>Центральний захисник</t>
-  </si>
-  <si>
-    <t>Пауло Дібала</t>
-  </si>
-  <si>
-    <t>Атакуючий півзахисник</t>
-  </si>
-  <si>
-    <t>Душан Влахович</t>
-  </si>
-  <si>
     <t>Форвард</t>
   </si>
   <si>
-    <t>Даніло</t>
-  </si>
-  <si>
-    <t>Бонуччі</t>
-  </si>
-  <si>
-    <t>Щенсни</t>
-  </si>
-  <si>
     <t>Воротар</t>
   </si>
   <si>
-    <t>Рабьйо</t>
-  </si>
-  <si>
-    <t>Артур</t>
-  </si>
-  <si>
-    <t>Де Шильйо</t>
-  </si>
-  <si>
     <t>Студент</t>
   </si>
   <si>
@@ -104,10 +71,16 @@
     <t>Олексій Астраханцев</t>
   </si>
   <si>
-    <t>Юрій</t>
-  </si>
-  <si>
     <t>Богдан</t>
+  </si>
+  <si>
+    <t>Монор Соломон</t>
+  </si>
+  <si>
+    <t>Мудрик</t>
+  </si>
+  <si>
+    <t>jalksjclak</t>
   </si>
 </sst>
 </file>
@@ -243,8 +216,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Ім'я"/>
     <tableColumn id="2" name="Дата народження"/>
@@ -520,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>45971</v>
+        <v>37205</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -562,7 +535,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
         <v>36870</v>
@@ -571,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +560,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,7 +587,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6">
         <v>37848</v>
@@ -623,12 +596,12 @@
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>37304</v>
@@ -637,36 +610,20 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6">
-        <v>39309</v>
-      </c>
-      <c r="C4" s="7">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="6">
-        <v>20316</v>
-      </c>
-      <c r="C5" s="7">
-        <v>17</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -675,7 +632,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
@@ -732,7 +689,46 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9134</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44562</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>36526</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -744,18 +740,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -773,143 +769,31 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1">
-        <v>36721</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6">
+        <v>21134</v>
+      </c>
+      <c r="C2" s="7">
+        <v>22</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1">
-        <v>33615</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1">
-        <v>36906</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1">
-        <v>32154</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1">
-        <v>30713</v>
-      </c>
-      <c r="C6">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6">
+        <v>32091</v>
+      </c>
+      <c r="C3" s="7">
+        <v>22</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1">
-        <v>30805</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1">
-        <v>33329</v>
-      </c>
-      <c r="C8">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1">
-        <v>33329</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1">
-        <v>31142</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1">
-        <v>33329</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/FootBallStat/FootBallStat/Команди.xlsx
+++ b/FootBallStat/FootBallStat/Команди.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Ім'я</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>jalksjclak</t>
+  </si>
+  <si>
+    <t>10.20.1987</t>
   </si>
 </sst>
 </file>
@@ -743,7 +746,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,8 +789,8 @@
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6">
-        <v>32091</v>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="7">
         <v>22</v>
